--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -16,6 +16,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>For Best Results</t>
+  </si>
+  <si>
     <t>Care &amp; Storage Instructions</t>
   </si>
   <si>
@@ -25,25 +28,22 @@
     <t>Our promises to you</t>
   </si>
   <si>
-    <t>new section</t>
-  </si>
-  <si>
-    <t>dragonstone</t>
-  </si>
-  <si>
-    <t>Zaros</t>
-  </si>
-  <si>
-    <t>Zamorak</t>
-  </si>
-  <si>
-    <t>Bandos</t>
-  </si>
-  <si>
-    <t>stormborn</t>
-  </si>
-  <si>
-    <t>Daenarys</t>
+    <t>Used By &amp; Best Before Date</t>
+  </si>
+  <si>
+    <t>It is recommended that you strip back your skincare routine to the basics and start with a blank slate. It is also recommended that you do not use other new skincare products while you are testing our products on your skin. The reason for this is you will not really know which of the products caused a reaction if you introduce too many at one time. If you usually do not have a problem with reactions on your skin, you should not have a reaction.</t>
+  </si>
+  <si>
+    <t>Store below 25 degrees celsius. Keep out of direct sunlight. Store in a dry place. Do not allow water to enter your product.</t>
+  </si>
+  <si>
+    <t>Apply a patch test first in the area of use. Stop using this blend immediately and seek medical advice if you have an allergic reaction or it causes irritation. For external use only. Keep out of reach of children.</t>
+  </si>
+  <si>
+    <t>We go to great lengths to hand select every ingredient. Please do not hesitate to let us know if you are not having the desired effect after using this product for the first 6 weeks. We will ensure that we analyse your needs further and make the necessary adjustments to your formulation. We select only natural and organic ingredients in order to formulate products that are not only gentle on your skin but are also effective. Each of our ingredients goes through a selection process to ensure the highest quality. Please do not hesitate to contact us if you have any questions or concerns about any of our products. We would be happy to help.</t>
+  </si>
+  <si>
+    <t>This blend must be used within ... months of blending.</t>
   </si>
 </sst>
 </file>

--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -43,7 +43,7 @@
     <t>We go to great lengths to hand select every ingredient. Please do not hesitate to let us know if you are not having the desired effect after using this product for the first 6 weeks. We will ensure that we analyse your needs further and make the necessary adjustments to your formulation. We select only natural and organic ingredients in order to formulate products that are not only gentle on your skin but are also effective. Each of our ingredients goes through a selection process to ensure the highest quality. Please do not hesitate to contact us if you have any questions or concerns about any of our products. We would be happy to help.</t>
   </si>
   <si>
-    <t>This blend must be used within ... months of blending.</t>
+    <t>This blend must be used within ... months of blending. Hello world</t>
   </si>
 </sst>
 </file>

--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Recommendations For Use</t>
+  </si>
   <si>
     <t>For Best Results</t>
   </si>
@@ -26,6 +29,9 @@
   </si>
   <si>
     <t>Our promises to you</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
   </si>
   <si>
     <t>Used By &amp; Best Before Date</t>
@@ -401,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,22 +429,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Recommendations For Use</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Used By &amp; Best Before Date</t>
   </si>
   <si>
+    <t>AutoFilled by system</t>
+  </si>
+  <si>
     <t>It is recommended that you strip back your skincare routine to the basics and start with a blank slate. It is also recommended that you do not use other new skincare products while you are testing our products on your skin. The reason for this is you will not really know which of the products caused a reaction if you introduce too many at one time. If you usually do not have a problem with reactions on your skin, you should not have a reaction.</t>
   </si>
   <si>
@@ -49,7 +52,7 @@
     <t>We go to great lengths to hand select every ingredient. Please do not hesitate to let us know if you are not having the desired effect after using this product for the first 6 weeks. We will ensure that we analyse your needs further and make the necessary adjustments to your formulation. We select only natural and organic ingredients in order to formulate products that are not only gentle on your skin but are also effective. Each of our ingredients goes through a selection process to ensure the highest quality. Please do not hesitate to contact us if you have any questions or concerns about any of our products. We would be happy to help.</t>
   </si>
   <si>
-    <t>This blend must be used within ... months of blending.</t>
+    <t>This blend must be used within...months of blending.</t>
   </si>
 </sst>
 </file>
@@ -437,20 +440,26 @@
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -31,10 +31,10 @@
     <t>Our promises to you</t>
   </si>
   <si>
+    <t>Used By &amp; Best Before Date</t>
+  </si>
+  <si>
     <t>Ingredients</t>
-  </si>
-  <si>
-    <t>Used By &amp; Best Before Date</t>
   </si>
   <si>
     <t>AutoFilled by system</t>
@@ -456,10 +456,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Restored To Eden/InformationSheet.xlsx
+++ b/Restored To Eden/InformationSheet.xlsx
@@ -31,10 +31,10 @@
     <t>Our promises to you</t>
   </si>
   <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
     <t>Used By &amp; Best Before Date</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
   </si>
   <si>
     <t>AutoFilled by system</t>
@@ -456,10 +456,10 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
